--- a/raw_data/transactions_log.xlsx
+++ b/raw_data/transactions_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duke\Lectures\02_IDS_706_DATA_ENGINEERING\group_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E182032-7F8B-43B6-8100-4A2B18303CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E809DC-69F3-49DD-BB38-D39AECB815CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>customer_id</t>
   </si>
   <si>
-    <t>Borrow</t>
-  </si>
-  <si>
     <t>oder_id</t>
   </si>
   <si>
@@ -57,6 +54,30 @@
   </si>
   <si>
     <t>BC10</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>cup_id</t>
+  </si>
+  <si>
+    <t>Add Cups</t>
+  </si>
+  <si>
+    <t>SB3</t>
+  </si>
+  <si>
+    <t>Borrowed</t>
+  </si>
+  <si>
+    <t>Returned</t>
+  </si>
+  <si>
+    <t>CA1</t>
+  </si>
+  <si>
+    <t>Bought</t>
   </si>
 </sst>
 </file>
@@ -95,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,51 +434,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B617DB90-6D3E-464D-87D2-F756CC04DABA}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="19.6640625" customWidth="1"/>
+    <col min="4" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>564534</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1">
-        <v>44782</v>
+        <v>44819</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44820</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44835</v>
+      </c>
+      <c r="C4">
+        <v>14049</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>989966</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44837</v>
+      </c>
+      <c r="C5">
+        <v>14049</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>989966</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44846</v>
+      </c>
+      <c r="C6">
+        <v>14047</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>989975</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44846</v>
+      </c>
+      <c r="C7">
+        <v>14049</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>989976</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44847</v>
+      </c>
+      <c r="C8">
+        <v>14047</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>989975</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44848</v>
+      </c>
+      <c r="C9">
+        <v>14049</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>989976</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C10">
+        <v>14048</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>989977</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C11">
+        <v>14047</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>989978</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C12">
+        <v>14049</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>989979</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C13">
+        <v>14049</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>989979</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44850</v>
+      </c>
+      <c r="C14">
+        <v>14048</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>989977</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44851</v>
+      </c>
+      <c r="C15">
+        <v>14047</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>989978</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44854</v>
+      </c>
+      <c r="C16">
+        <v>14048</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>989977</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44854</v>
+      </c>
+      <c r="C17">
+        <v>14047</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>989978</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44854</v>
+      </c>
+      <c r="C18">
+        <v>14049</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>989966</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44855</v>
+      </c>
+      <c r="C19">
+        <v>14048</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>989977</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44855</v>
+      </c>
+      <c r="C20">
+        <v>14047</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>989978</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44855</v>
+      </c>
+      <c r="C21">
+        <v>14049</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>989966</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44866</v>
+      </c>
+      <c r="C22">
+        <v>14047</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>989967</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44866</v>
+      </c>
+      <c r="C23">
+        <v>14048</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>989968</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44866</v>
+      </c>
+      <c r="C24">
+        <v>14049</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>989969</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>124</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44866</v>
+      </c>
+      <c r="C25">
         <v>14045</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>989970</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44867</v>
+      </c>
+      <c r="C26">
+        <v>14045</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>989970</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44868</v>
+      </c>
+      <c r="C27">
+        <v>14048</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>989968</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
